--- a/bitcoin_predictions_ist.xlsx
+++ b/bitcoin_predictions_ist.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +449,166 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45643.92129466461</v>
+      </c>
+      <c r="B2" t="n">
+        <v>106651.328125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45643.92198910905</v>
+      </c>
+      <c r="B3" t="n">
+        <v>106540.953125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45643.92268355349</v>
+      </c>
+      <c r="B4" t="n">
+        <v>106441.1484375</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45643.92337799794</v>
+      </c>
+      <c r="B5" t="n">
+        <v>106329.78125</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45643.92407244239</v>
+      </c>
+      <c r="B6" t="n">
+        <v>106225.1796875</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45643.92476688683</v>
+      </c>
+      <c r="B7" t="n">
+        <v>106126.28125</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45643.92546133127</v>
+      </c>
+      <c r="B8" t="n">
+        <v>106032.6171875</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45643.92615577572</v>
+      </c>
+      <c r="B9" t="n">
+        <v>105942.234375</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45643.92685022016</v>
+      </c>
+      <c r="B10" t="n">
+        <v>105853.78125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45643.92754466461</v>
+      </c>
+      <c r="B11" t="n">
+        <v>105766.4765625</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45643.92823910905</v>
+      </c>
+      <c r="B12" t="n">
+        <v>105680.1171875</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45643.92893355349</v>
+      </c>
+      <c r="B13" t="n">
+        <v>105594.8203125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45643.92962799794</v>
+      </c>
+      <c r="B14" t="n">
+        <v>105510.796875</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45643.93032244239</v>
+      </c>
+      <c r="B15" t="n">
+        <v>105428.28125</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45643.93101688683</v>
+      </c>
+      <c r="B16" t="n">
+        <v>105347.4453125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45643.93171133127</v>
+      </c>
+      <c r="B17" t="n">
+        <v>105268.3671875</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45643.93240577572</v>
+      </c>
+      <c r="B18" t="n">
+        <v>105191.0546875</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45643.93310022017</v>
+      </c>
+      <c r="B19" t="n">
+        <v>105115.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45643.9337946646</v>
+      </c>
+      <c r="B20" t="n">
+        <v>105041.625</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45643.93448910905</v>
+      </c>
+      <c r="B21" t="n">
+        <v>104969.359375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
